--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23006"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5704794B-2589-4071-9133-BFA4E295DEEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F31BC2-E2BD-40E5-B29F-2BB577A14EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -517,21 +517,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F2267"/>
+  <dimension ref="B1:F2339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A2312" workbookViewId="0">
+      <selection activeCell="D2339" sqref="D2339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1"/>
+    </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -39052,6 +39055,1230 @@
       </c>
       <c r="F2267">
         <v>123</v>
+      </c>
+    </row>
+    <row r="2268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2268" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2268" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2268">
+        <v>1</v>
+      </c>
+      <c r="E2268">
+        <v>0</v>
+      </c>
+      <c r="F2268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2269" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2269">
+        <v>1</v>
+      </c>
+      <c r="E2269">
+        <v>0</v>
+      </c>
+      <c r="F2269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2270" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2270" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2270">
+        <v>11</v>
+      </c>
+      <c r="E2270">
+        <v>0</v>
+      </c>
+      <c r="F2270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2271" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2271">
+        <v>2</v>
+      </c>
+      <c r="E2271">
+        <v>0</v>
+      </c>
+      <c r="F2271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2272" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2272" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2272">
+        <v>2</v>
+      </c>
+      <c r="E2272">
+        <v>0</v>
+      </c>
+      <c r="F2272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2273" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2273" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2273">
+        <v>2</v>
+      </c>
+      <c r="E2273">
+        <v>0</v>
+      </c>
+      <c r="F2273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2274" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2274" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2274">
+        <v>2</v>
+      </c>
+      <c r="E2274">
+        <v>1</v>
+      </c>
+      <c r="F2274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2275" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2275" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2275">
+        <v>19</v>
+      </c>
+      <c r="E2275">
+        <v>0</v>
+      </c>
+      <c r="F2275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2276" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2276" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2276">
+        <v>2</v>
+      </c>
+      <c r="E2276">
+        <v>0</v>
+      </c>
+      <c r="F2276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2277" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2277" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2277">
+        <v>2</v>
+      </c>
+      <c r="E2277">
+        <v>0</v>
+      </c>
+      <c r="F2277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2278" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2278" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2278">
+        <v>2</v>
+      </c>
+      <c r="E2278">
+        <v>0</v>
+      </c>
+      <c r="F2278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2279" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2279" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2279">
+        <v>1</v>
+      </c>
+      <c r="E2279">
+        <v>0</v>
+      </c>
+      <c r="F2279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2280" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2280" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2280">
+        <v>1</v>
+      </c>
+      <c r="E2280">
+        <v>0</v>
+      </c>
+      <c r="F2280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2281" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2281" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2281">
+        <v>2</v>
+      </c>
+      <c r="E2281">
+        <v>1</v>
+      </c>
+      <c r="F2281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2282" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2282" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2282">
+        <v>1</v>
+      </c>
+      <c r="E2282">
+        <v>0</v>
+      </c>
+      <c r="F2282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2283" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2283" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2283">
+        <v>2</v>
+      </c>
+      <c r="E2283">
+        <v>0</v>
+      </c>
+      <c r="F2283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2284" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2284" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2284">
+        <v>2</v>
+      </c>
+      <c r="E2284">
+        <v>0</v>
+      </c>
+      <c r="F2284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2285" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2285" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2285">
+        <v>3</v>
+      </c>
+      <c r="E2285">
+        <v>0</v>
+      </c>
+      <c r="F2285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2286" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2286" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2286">
+        <v>2</v>
+      </c>
+      <c r="E2286">
+        <v>0</v>
+      </c>
+      <c r="F2286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2287" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2287" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2287">
+        <v>1</v>
+      </c>
+      <c r="E2287">
+        <v>0</v>
+      </c>
+      <c r="F2287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2288" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2288" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2288">
+        <v>1</v>
+      </c>
+      <c r="E2288">
+        <v>0</v>
+      </c>
+      <c r="F2288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2289" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2289" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2289" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2289">
+        <v>2</v>
+      </c>
+      <c r="E2289">
+        <v>0</v>
+      </c>
+      <c r="F2289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2290" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2290" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2290">
+        <v>1</v>
+      </c>
+      <c r="E2290">
+        <v>0</v>
+      </c>
+      <c r="F2290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2291" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2291" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2291" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2291">
+        <v>2</v>
+      </c>
+      <c r="E2291">
+        <v>0</v>
+      </c>
+      <c r="F2291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2292" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2292" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2292" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2292">
+        <v>2</v>
+      </c>
+      <c r="E2292">
+        <v>1</v>
+      </c>
+      <c r="F2292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2293" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2293" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2293" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2293">
+        <v>2</v>
+      </c>
+      <c r="E2293">
+        <v>0</v>
+      </c>
+      <c r="F2293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2294" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2294" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2294" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2294">
+        <v>2</v>
+      </c>
+      <c r="E2294">
+        <v>0</v>
+      </c>
+      <c r="F2294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2295" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2295" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2295" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2295">
+        <v>1</v>
+      </c>
+      <c r="E2295">
+        <v>1</v>
+      </c>
+      <c r="F2295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2296" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2296" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2296">
+        <v>1</v>
+      </c>
+      <c r="E2296">
+        <v>0</v>
+      </c>
+      <c r="F2296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2297" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2297" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2297">
+        <v>15</v>
+      </c>
+      <c r="E2297">
+        <v>1</v>
+      </c>
+      <c r="F2297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2298" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2298" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2298" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2298">
+        <v>1</v>
+      </c>
+      <c r="E2298">
+        <v>1</v>
+      </c>
+      <c r="F2298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2299" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2299" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2299" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2299">
+        <v>2</v>
+      </c>
+      <c r="E2299">
+        <v>0</v>
+      </c>
+      <c r="F2299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2300" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2300" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2300" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2300">
+        <v>0</v>
+      </c>
+      <c r="E2300">
+        <v>1</v>
+      </c>
+      <c r="F2300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2301" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2301" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2301" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2301">
+        <v>5</v>
+      </c>
+      <c r="E2301">
+        <v>0</v>
+      </c>
+      <c r="F2301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2302" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2302" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2302" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2302">
+        <v>1</v>
+      </c>
+      <c r="E2302">
+        <v>1</v>
+      </c>
+      <c r="F2302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2303" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2303" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2303" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2303">
+        <v>1</v>
+      </c>
+      <c r="E2303">
+        <v>1</v>
+      </c>
+      <c r="F2303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2304" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2304" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2304" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2304">
+        <v>3</v>
+      </c>
+      <c r="E2304">
+        <v>0</v>
+      </c>
+      <c r="F2304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2305" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2305" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2305" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2305">
+        <v>1</v>
+      </c>
+      <c r="E2305">
+        <v>0</v>
+      </c>
+      <c r="F2305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2306" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2306" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2306">
+        <v>1</v>
+      </c>
+      <c r="E2306">
+        <v>0</v>
+      </c>
+      <c r="F2306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2307" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2307" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C2307" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2307">
+        <v>0</v>
+      </c>
+      <c r="E2307">
+        <v>0</v>
+      </c>
+      <c r="F2307">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2308" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2308" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2308" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2308">
+        <v>2</v>
+      </c>
+      <c r="E2308">
+        <v>0</v>
+      </c>
+      <c r="F2308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2309" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2309" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2309" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2309">
+        <v>12</v>
+      </c>
+      <c r="E2309">
+        <v>0</v>
+      </c>
+      <c r="F2309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2310" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2310" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2310">
+        <v>2</v>
+      </c>
+      <c r="E2310">
+        <v>1</v>
+      </c>
+      <c r="F2310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2311" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2311" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2311" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2311">
+        <v>2</v>
+      </c>
+      <c r="E2311">
+        <v>0</v>
+      </c>
+      <c r="F2311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2312" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2312" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2312" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2312">
+        <v>2</v>
+      </c>
+      <c r="E2312">
+        <v>0</v>
+      </c>
+      <c r="F2312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2313" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2313" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2313" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2313">
+        <v>24</v>
+      </c>
+      <c r="E2313">
+        <v>0</v>
+      </c>
+      <c r="F2313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2314" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2314" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2314" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2314">
+        <v>2</v>
+      </c>
+      <c r="E2314">
+        <v>0</v>
+      </c>
+      <c r="F2314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2315" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2315" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2315" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2315">
+        <v>2</v>
+      </c>
+      <c r="E2315">
+        <v>0</v>
+      </c>
+      <c r="F2315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2316" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2316" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2316" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2316">
+        <v>3</v>
+      </c>
+      <c r="E2316">
+        <v>0</v>
+      </c>
+      <c r="F2316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2317" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2317" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2317" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2317">
+        <v>0</v>
+      </c>
+      <c r="E2317">
+        <v>2</v>
+      </c>
+      <c r="F2317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2318" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2318" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2318" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2318">
+        <v>2</v>
+      </c>
+      <c r="E2318">
+        <v>0</v>
+      </c>
+      <c r="F2318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2319" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2319" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2319" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2319">
+        <v>2</v>
+      </c>
+      <c r="E2319">
+        <v>0</v>
+      </c>
+      <c r="F2319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2320" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2320" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2320" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2320">
+        <v>2</v>
+      </c>
+      <c r="E2320">
+        <v>0</v>
+      </c>
+      <c r="F2320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2321" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2321" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2321" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2321">
+        <v>2</v>
+      </c>
+      <c r="E2321">
+        <v>0</v>
+      </c>
+      <c r="F2321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2322" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2322" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2322" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2322">
+        <v>2</v>
+      </c>
+      <c r="E2322">
+        <v>0</v>
+      </c>
+      <c r="F2322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2323" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2323" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2323" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2323">
+        <v>3</v>
+      </c>
+      <c r="E2323">
+        <v>0</v>
+      </c>
+      <c r="F2323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2324" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2324" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2324" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2324">
+        <v>2</v>
+      </c>
+      <c r="E2324">
+        <v>0</v>
+      </c>
+      <c r="F2324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2325" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2325" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2325" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2325">
+        <v>1</v>
+      </c>
+      <c r="E2325">
+        <v>0</v>
+      </c>
+      <c r="F2325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2326" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2326" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2326" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2326">
+        <v>2</v>
+      </c>
+      <c r="E2326">
+        <v>3</v>
+      </c>
+      <c r="F2326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2327" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2327" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2327" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2327">
+        <v>1</v>
+      </c>
+      <c r="E2327">
+        <v>0</v>
+      </c>
+      <c r="F2327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2328" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2328" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2328" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2328">
+        <v>5</v>
+      </c>
+      <c r="E2328">
+        <v>0</v>
+      </c>
+      <c r="F2328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2329" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2329" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2329" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2329">
+        <v>4</v>
+      </c>
+      <c r="E2329">
+        <v>0</v>
+      </c>
+      <c r="F2329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2330" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2330" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2330" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2330">
+        <v>3</v>
+      </c>
+      <c r="E2330">
+        <v>0</v>
+      </c>
+      <c r="F2330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2331" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2331" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2331" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2331">
+        <v>9</v>
+      </c>
+      <c r="E2331">
+        <v>3</v>
+      </c>
+      <c r="F2331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2332" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2332" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2332" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2332">
+        <v>3</v>
+      </c>
+      <c r="E2332">
+        <v>0</v>
+      </c>
+      <c r="F2332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2333" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2333" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2333" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2333">
+        <v>1</v>
+      </c>
+      <c r="E2333">
+        <v>0</v>
+      </c>
+      <c r="F2333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2334" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2334" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2334" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2334">
+        <v>2</v>
+      </c>
+      <c r="E2334">
+        <v>0</v>
+      </c>
+      <c r="F2334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2335" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2335" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2335" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2335">
+        <v>2</v>
+      </c>
+      <c r="E2335">
+        <v>1</v>
+      </c>
+      <c r="F2335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2336" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2336" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2336" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2336">
+        <v>4</v>
+      </c>
+      <c r="E2336">
+        <v>0</v>
+      </c>
+      <c r="F2336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2337" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2337" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2337">
+        <v>3</v>
+      </c>
+      <c r="E2337">
+        <v>0</v>
+      </c>
+      <c r="F2337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2338" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2338">
+        <v>3</v>
+      </c>
+      <c r="E2338">
+        <v>0</v>
+      </c>
+      <c r="F2338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2339" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C2339" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2339">
+        <v>0</v>
+      </c>
+      <c r="E2339">
+        <v>0</v>
+      </c>
+      <c r="F2339">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F31BC2-E2BD-40E5-B29F-2BB577A14EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5446B364-B649-48C9-A5EF-D458CFFED1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="11520" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DzData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2342" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -517,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2339"/>
+  <dimension ref="B1:F2377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2312" workbookViewId="0">
-      <selection activeCell="D2339" sqref="D2339"/>
+    <sheetView tabSelected="1" topLeftCell="A2350" workbookViewId="0">
+      <selection activeCell="I2360" sqref="I2360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40281,6 +40290,652 @@
         <v>68</v>
       </c>
     </row>
+    <row r="2340" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2340" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2340">
+        <v>2</v>
+      </c>
+      <c r="E2340">
+        <v>0</v>
+      </c>
+      <c r="F2340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2341" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2341" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2341" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2341">
+        <v>2</v>
+      </c>
+      <c r="E2341">
+        <v>0</v>
+      </c>
+      <c r="F2341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2342" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2342">
+        <v>14</v>
+      </c>
+      <c r="E2342">
+        <v>2</v>
+      </c>
+      <c r="F2342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2343" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2343" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2343">
+        <v>1</v>
+      </c>
+      <c r="E2343">
+        <v>0</v>
+      </c>
+      <c r="F2343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2344" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2344" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2344">
+        <v>1</v>
+      </c>
+      <c r="E2344">
+        <v>0</v>
+      </c>
+      <c r="F2344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2345" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2345" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2345" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2345">
+        <v>1</v>
+      </c>
+      <c r="E2345">
+        <v>0</v>
+      </c>
+      <c r="F2345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2346" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2346" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2346" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2346">
+        <v>1</v>
+      </c>
+      <c r="E2346">
+        <v>0</v>
+      </c>
+      <c r="F2346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2347" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2347" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2347" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2347">
+        <v>2</v>
+      </c>
+      <c r="E2347">
+        <v>0</v>
+      </c>
+      <c r="F2347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2348" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2348" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2348" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2348">
+        <v>26</v>
+      </c>
+      <c r="E2348">
+        <v>0</v>
+      </c>
+      <c r="F2348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2349" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2349" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2349" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2349">
+        <v>3</v>
+      </c>
+      <c r="E2349">
+        <v>0</v>
+      </c>
+      <c r="F2349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2350" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2350" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2350" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2350">
+        <v>2</v>
+      </c>
+      <c r="E2350">
+        <v>0</v>
+      </c>
+      <c r="F2350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2351" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2351" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2351" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2351">
+        <v>2</v>
+      </c>
+      <c r="E2351">
+        <v>0</v>
+      </c>
+      <c r="F2351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2352" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2352" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2352" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2352">
+        <v>1</v>
+      </c>
+      <c r="E2352">
+        <v>0</v>
+      </c>
+      <c r="F2352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2353" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2353" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2353" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2353">
+        <v>2</v>
+      </c>
+      <c r="E2353">
+        <v>0</v>
+      </c>
+      <c r="F2353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2354" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2354" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2354" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2354">
+        <v>0</v>
+      </c>
+      <c r="E2354">
+        <v>1</v>
+      </c>
+      <c r="F2354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2355" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2355" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2355" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2355">
+        <v>1</v>
+      </c>
+      <c r="E2355">
+        <v>0</v>
+      </c>
+      <c r="F2355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2356" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2356" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2356" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2356">
+        <v>2</v>
+      </c>
+      <c r="E2356">
+        <v>0</v>
+      </c>
+      <c r="F2356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2357" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2357" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2357" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2357">
+        <v>2</v>
+      </c>
+      <c r="E2357">
+        <v>1</v>
+      </c>
+      <c r="F2357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2358" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2358" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2358" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2358">
+        <v>2</v>
+      </c>
+      <c r="E2358">
+        <v>0</v>
+      </c>
+      <c r="F2358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2359" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2359" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2359" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2359">
+        <v>1</v>
+      </c>
+      <c r="E2359">
+        <v>0</v>
+      </c>
+      <c r="F2359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2360" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2360" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2360" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2360">
+        <v>2</v>
+      </c>
+      <c r="E2360">
+        <v>0</v>
+      </c>
+      <c r="F2360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2361" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2361" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2361" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2361">
+        <v>2</v>
+      </c>
+      <c r="E2361">
+        <v>1</v>
+      </c>
+      <c r="F2361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2362" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2362" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2362" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2362">
+        <v>3</v>
+      </c>
+      <c r="E2362">
+        <v>0</v>
+      </c>
+      <c r="F2362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2363" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2363" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2363" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2363">
+        <v>4</v>
+      </c>
+      <c r="E2363">
+        <v>0</v>
+      </c>
+      <c r="F2363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2364" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2364" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2364" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2364">
+        <v>1</v>
+      </c>
+      <c r="E2364">
+        <v>0</v>
+      </c>
+      <c r="F2364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2365" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2365" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2365" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2365">
+        <v>2</v>
+      </c>
+      <c r="E2365">
+        <v>0</v>
+      </c>
+      <c r="F2365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2366" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2366" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2366">
+        <v>2</v>
+      </c>
+      <c r="E2366">
+        <v>0</v>
+      </c>
+      <c r="F2366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2367" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2367" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2367" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2367">
+        <v>15</v>
+      </c>
+      <c r="E2367">
+        <v>2</v>
+      </c>
+      <c r="F2367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2368" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2368" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2368">
+        <v>1</v>
+      </c>
+      <c r="E2368">
+        <v>0</v>
+      </c>
+      <c r="F2368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2369" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2369" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2369">
+        <v>1</v>
+      </c>
+      <c r="E2369">
+        <v>0</v>
+      </c>
+      <c r="F2369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2370" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2370" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2370">
+        <v>1</v>
+      </c>
+      <c r="E2370">
+        <v>0</v>
+      </c>
+      <c r="F2370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2371" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2371" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2371" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2371">
+        <v>2</v>
+      </c>
+      <c r="E2371">
+        <v>0</v>
+      </c>
+      <c r="F2371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2372" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2372" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2372" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2372">
+        <v>1</v>
+      </c>
+      <c r="E2372">
+        <v>1</v>
+      </c>
+      <c r="F2372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2373" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2373" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2373">
+        <v>2</v>
+      </c>
+      <c r="E2373">
+        <v>1</v>
+      </c>
+      <c r="F2373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2374" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2374" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2374">
+        <v>1</v>
+      </c>
+      <c r="E2374">
+        <v>0</v>
+      </c>
+      <c r="F2374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2375" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2375" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2375">
+        <v>2</v>
+      </c>
+      <c r="E2375">
+        <v>0</v>
+      </c>
+      <c r="F2375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2376" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2376" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2376">
+        <v>2</v>
+      </c>
+      <c r="E2376">
+        <v>0</v>
+      </c>
+      <c r="F2376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2377" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2377" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C2377" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2377">
+        <v>0</v>
+      </c>
+      <c r="E2377">
+        <v>0</v>
+      </c>
+      <c r="F2377">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5446B364-B649-48C9-A5EF-D458CFFED1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA2E60-C95D-41E1-B0CD-C00C90D37C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="11520" windowHeight="7890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DzData" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2377"/>
+  <dimension ref="B1:F2415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2350" workbookViewId="0">
-      <selection activeCell="I2360" sqref="I2360"/>
+    <sheetView tabSelected="1" topLeftCell="A2385" workbookViewId="0">
+      <selection activeCell="B2415" sqref="B2415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40936,6 +40936,652 @@
         <v>98</v>
       </c>
     </row>
+    <row r="2378" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2378" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2378" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2378">
+        <v>1</v>
+      </c>
+      <c r="E2378">
+        <v>0</v>
+      </c>
+      <c r="F2378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2379" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2379" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2379">
+        <v>1</v>
+      </c>
+      <c r="E2379">
+        <v>0</v>
+      </c>
+      <c r="F2379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2380" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2380" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2380" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2380">
+        <v>9</v>
+      </c>
+      <c r="E2380">
+        <v>0</v>
+      </c>
+      <c r="F2380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2381" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2381" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2381" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2381">
+        <v>2</v>
+      </c>
+      <c r="E2381">
+        <v>0</v>
+      </c>
+      <c r="F2381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2382" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2382" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2382" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2382">
+        <v>1</v>
+      </c>
+      <c r="E2382">
+        <v>0</v>
+      </c>
+      <c r="F2382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2383" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2383" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2383" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2383">
+        <v>15</v>
+      </c>
+      <c r="E2383">
+        <v>2</v>
+      </c>
+      <c r="F2383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2384" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2384" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2384" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2384">
+        <v>1</v>
+      </c>
+      <c r="E2384">
+        <v>0</v>
+      </c>
+      <c r="F2384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2385" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2385" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2385" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2385">
+        <v>2</v>
+      </c>
+      <c r="E2385">
+        <v>0</v>
+      </c>
+      <c r="F2385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2386" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2386" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2386" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2386">
+        <v>2</v>
+      </c>
+      <c r="E2386">
+        <v>0</v>
+      </c>
+      <c r="F2386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2387" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2387" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2387" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2387">
+        <v>2</v>
+      </c>
+      <c r="E2387">
+        <v>0</v>
+      </c>
+      <c r="F2387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2388" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2388" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2388">
+        <v>2</v>
+      </c>
+      <c r="E2388">
+        <v>2</v>
+      </c>
+      <c r="F2388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2389" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2389" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2389">
+        <v>1</v>
+      </c>
+      <c r="E2389">
+        <v>0</v>
+      </c>
+      <c r="F2389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2390" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2390" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2390">
+        <v>2</v>
+      </c>
+      <c r="E2390">
+        <v>0</v>
+      </c>
+      <c r="F2390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2391" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2391" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2391" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2391">
+        <v>2</v>
+      </c>
+      <c r="E2391">
+        <v>0</v>
+      </c>
+      <c r="F2391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2392" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2392" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2392" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2392">
+        <v>1</v>
+      </c>
+      <c r="E2392">
+        <v>0</v>
+      </c>
+      <c r="F2392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2393" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2393" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2393" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2393">
+        <v>1</v>
+      </c>
+      <c r="E2393">
+        <v>0</v>
+      </c>
+      <c r="F2393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2394" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2394" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2394" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2394">
+        <v>2</v>
+      </c>
+      <c r="E2394">
+        <v>0</v>
+      </c>
+      <c r="F2394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2395" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2395" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2395" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2395">
+        <v>3</v>
+      </c>
+      <c r="E2395">
+        <v>0</v>
+      </c>
+      <c r="F2395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2396" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2396" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2396" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2396">
+        <v>1</v>
+      </c>
+      <c r="E2396">
+        <v>0</v>
+      </c>
+      <c r="F2396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2397" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2397" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2397" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2397">
+        <v>2</v>
+      </c>
+      <c r="E2397">
+        <v>0</v>
+      </c>
+      <c r="F2397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2398" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2398" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2398">
+        <v>1</v>
+      </c>
+      <c r="E2398">
+        <v>1</v>
+      </c>
+      <c r="F2398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2399" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2399" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2399" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2399">
+        <v>2</v>
+      </c>
+      <c r="E2399">
+        <v>0</v>
+      </c>
+      <c r="F2399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2400" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2400" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2400" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2400">
+        <v>6</v>
+      </c>
+      <c r="E2400">
+        <v>0</v>
+      </c>
+      <c r="F2400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2401" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2401" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2401" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2401">
+        <v>2</v>
+      </c>
+      <c r="E2401">
+        <v>0</v>
+      </c>
+      <c r="F2401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2402" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2402" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2402" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2402">
+        <v>3</v>
+      </c>
+      <c r="E2402">
+        <v>0</v>
+      </c>
+      <c r="F2402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2403" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2403" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2403" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2403">
+        <v>2</v>
+      </c>
+      <c r="E2403">
+        <v>0</v>
+      </c>
+      <c r="F2403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2404" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2404" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2404" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2404">
+        <v>2</v>
+      </c>
+      <c r="E2404">
+        <v>0</v>
+      </c>
+      <c r="F2404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2405" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2405" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2405" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2405">
+        <v>22</v>
+      </c>
+      <c r="E2405">
+        <v>1</v>
+      </c>
+      <c r="F2405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2406" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2406" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2406" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2406">
+        <v>1</v>
+      </c>
+      <c r="E2406">
+        <v>0</v>
+      </c>
+      <c r="F2406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2407" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2407" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2407" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2407">
+        <v>2</v>
+      </c>
+      <c r="E2407">
+        <v>0</v>
+      </c>
+      <c r="F2407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2408" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2408" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2408">
+        <v>1</v>
+      </c>
+      <c r="E2408">
+        <v>0</v>
+      </c>
+      <c r="F2408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2409" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2409" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2409">
+        <v>3</v>
+      </c>
+      <c r="E2409">
+        <v>0</v>
+      </c>
+      <c r="F2409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2410" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2410" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2410" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2410">
+        <v>2</v>
+      </c>
+      <c r="E2410">
+        <v>0</v>
+      </c>
+      <c r="F2410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2411" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2411" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2411" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2411">
+        <v>2</v>
+      </c>
+      <c r="E2411">
+        <v>0</v>
+      </c>
+      <c r="F2411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2412" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2412">
+        <v>2</v>
+      </c>
+      <c r="E2412">
+        <v>1</v>
+      </c>
+      <c r="F2412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2413" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2413" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2413">
+        <v>1</v>
+      </c>
+      <c r="E2413">
+        <v>0</v>
+      </c>
+      <c r="F2413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2414" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2414" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2414" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2414">
+        <v>2</v>
+      </c>
+      <c r="E2414">
+        <v>0</v>
+      </c>
+      <c r="F2414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2415" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2415" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2415">
+        <v>0</v>
+      </c>
+      <c r="E2415">
+        <v>0</v>
+      </c>
+      <c r="F2415">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA2E60-C95D-41E1-B0CD-C00C90D37C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F89F805-41F8-4E65-83F5-A151500E58E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2415"/>
+  <dimension ref="B1:F2452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2385" workbookViewId="0">
-      <selection activeCell="B2415" sqref="B2415"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41582,6 +41582,635 @@
         <v>186</v>
       </c>
     </row>
+    <row r="2416" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2416" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2416" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2416">
+        <v>2</v>
+      </c>
+      <c r="E2416">
+        <v>0</v>
+      </c>
+      <c r="F2416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2417" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2417" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2417">
+        <v>1</v>
+      </c>
+      <c r="E2417">
+        <v>0</v>
+      </c>
+      <c r="F2417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2418" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2418" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2418" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2418">
+        <v>1</v>
+      </c>
+      <c r="E2418">
+        <v>0</v>
+      </c>
+      <c r="F2418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2419" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2419" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2419" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2419">
+        <v>9</v>
+      </c>
+      <c r="E2419">
+        <v>0</v>
+      </c>
+      <c r="F2419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2420" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2420" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2420" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2420">
+        <v>2</v>
+      </c>
+      <c r="E2420">
+        <v>0</v>
+      </c>
+      <c r="F2420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2421" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2421" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2421" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2421">
+        <v>1</v>
+      </c>
+      <c r="E2421">
+        <v>0</v>
+      </c>
+      <c r="F2421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2422" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2422" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2422">
+        <v>2</v>
+      </c>
+      <c r="E2422">
+        <v>1</v>
+      </c>
+      <c r="F2422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2423" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2423" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2423">
+        <v>16</v>
+      </c>
+      <c r="E2423">
+        <v>1</v>
+      </c>
+      <c r="F2423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2424" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2424" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2424">
+        <v>1</v>
+      </c>
+      <c r="E2424">
+        <v>0</v>
+      </c>
+      <c r="F2424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2425" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2425" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2425" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2425">
+        <v>2</v>
+      </c>
+      <c r="E2425">
+        <v>1</v>
+      </c>
+      <c r="F2425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2426" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2426" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2426">
+        <v>3</v>
+      </c>
+      <c r="E2426">
+        <v>1</v>
+      </c>
+      <c r="F2426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2427" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2427" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2427">
+        <v>4</v>
+      </c>
+      <c r="E2427">
+        <v>0</v>
+      </c>
+      <c r="F2427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2428" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2428" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2428" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2428">
+        <v>2</v>
+      </c>
+      <c r="E2428">
+        <v>0</v>
+      </c>
+      <c r="F2428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2429" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2429" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2429" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2429">
+        <v>2</v>
+      </c>
+      <c r="E2429">
+        <v>0</v>
+      </c>
+      <c r="F2429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2430" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2430" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2430">
+        <v>1</v>
+      </c>
+      <c r="E2430">
+        <v>0</v>
+      </c>
+      <c r="F2430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2431" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2431" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2431" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2431">
+        <v>1</v>
+      </c>
+      <c r="E2431">
+        <v>0</v>
+      </c>
+      <c r="F2431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2432" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2432" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2432" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2432">
+        <v>2</v>
+      </c>
+      <c r="E2432">
+        <v>0</v>
+      </c>
+      <c r="F2432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2433" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2433" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2433" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2433">
+        <v>2</v>
+      </c>
+      <c r="E2433">
+        <v>0</v>
+      </c>
+      <c r="F2433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2434" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2434" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2434">
+        <v>1</v>
+      </c>
+      <c r="E2434">
+        <v>0</v>
+      </c>
+      <c r="F2434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2435" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2435" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2435" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2435">
+        <v>2</v>
+      </c>
+      <c r="E2435">
+        <v>0</v>
+      </c>
+      <c r="F2435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2436" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2436" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2436" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2436">
+        <v>4</v>
+      </c>
+      <c r="E2436">
+        <v>0</v>
+      </c>
+      <c r="F2436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2437" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2437" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2437">
+        <v>2</v>
+      </c>
+      <c r="E2437">
+        <v>1</v>
+      </c>
+      <c r="F2437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2438" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2438" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2438">
+        <v>1</v>
+      </c>
+      <c r="E2438">
+        <v>0</v>
+      </c>
+      <c r="F2438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2439" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2439" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2439" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2439">
+        <v>6</v>
+      </c>
+      <c r="E2439">
+        <v>0</v>
+      </c>
+      <c r="F2439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2440" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2440" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2440" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2440">
+        <v>4</v>
+      </c>
+      <c r="E2440">
+        <v>0</v>
+      </c>
+      <c r="F2440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2441" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2441" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2441">
+        <v>2</v>
+      </c>
+      <c r="E2441">
+        <v>1</v>
+      </c>
+      <c r="F2441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2442" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2442" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2442" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2442">
+        <v>2</v>
+      </c>
+      <c r="E2442">
+        <v>0</v>
+      </c>
+      <c r="F2442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2443" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2443" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2443" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2443">
+        <v>15</v>
+      </c>
+      <c r="E2443">
+        <v>1</v>
+      </c>
+      <c r="F2443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2444" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2444" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2444" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2444">
+        <v>2</v>
+      </c>
+      <c r="E2444">
+        <v>1</v>
+      </c>
+      <c r="F2444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2445" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2445" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2445" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2445">
+        <v>1</v>
+      </c>
+      <c r="E2445">
+        <v>0</v>
+      </c>
+      <c r="F2445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2446" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2446" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2446">
+        <v>2</v>
+      </c>
+      <c r="E2446">
+        <v>0</v>
+      </c>
+      <c r="F2446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2447" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2447" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2447">
+        <v>1</v>
+      </c>
+      <c r="E2447">
+        <v>0</v>
+      </c>
+      <c r="F2447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2448" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2448" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2448" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2448">
+        <v>6</v>
+      </c>
+      <c r="E2448">
+        <v>1</v>
+      </c>
+      <c r="F2448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2449" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2449" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2449" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2449">
+        <v>3</v>
+      </c>
+      <c r="E2449">
+        <v>1</v>
+      </c>
+      <c r="F2449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2450" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2450">
+        <v>2</v>
+      </c>
+      <c r="E2450">
+        <v>0</v>
+      </c>
+      <c r="F2450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2451" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2451" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2451">
+        <v>2</v>
+      </c>
+      <c r="E2451">
+        <v>0</v>
+      </c>
+      <c r="F2451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2452" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2452" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C2452" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2452">
+        <v>0</v>
+      </c>
+      <c r="E2452">
+        <v>0</v>
+      </c>
+      <c r="F2452">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F89F805-41F8-4E65-83F5-A151500E58E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC81F16-AF0A-4576-BCE0-27DAE496651E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2452"/>
+  <dimension ref="B1:F2489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A2465" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F2489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42211,6 +42211,635 @@
         <v>129</v>
       </c>
     </row>
+    <row r="2453" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2453" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2453">
+        <v>1</v>
+      </c>
+      <c r="E2453">
+        <v>0</v>
+      </c>
+      <c r="F2453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2454" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2454" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2454">
+        <v>14</v>
+      </c>
+      <c r="E2454">
+        <v>1</v>
+      </c>
+      <c r="F2454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2455" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2455" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2455" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2455">
+        <v>3</v>
+      </c>
+      <c r="E2455">
+        <v>0</v>
+      </c>
+      <c r="F2455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2456" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2456" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2456">
+        <v>1</v>
+      </c>
+      <c r="E2456">
+        <v>1</v>
+      </c>
+      <c r="F2456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2457" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2457" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2457" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2457">
+        <v>1</v>
+      </c>
+      <c r="E2457">
+        <v>0</v>
+      </c>
+      <c r="F2457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2458" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2458" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2458" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2458">
+        <v>2</v>
+      </c>
+      <c r="E2458">
+        <v>1</v>
+      </c>
+      <c r="F2458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2459" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2459">
+        <v>2</v>
+      </c>
+      <c r="E2459">
+        <v>0</v>
+      </c>
+      <c r="F2459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2460" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2460" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2460">
+        <v>15</v>
+      </c>
+      <c r="E2460">
+        <v>0</v>
+      </c>
+      <c r="F2460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2461" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2461" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2461" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2461">
+        <v>2</v>
+      </c>
+      <c r="E2461">
+        <v>1</v>
+      </c>
+      <c r="F2461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2462" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2462" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2462" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2462">
+        <v>3</v>
+      </c>
+      <c r="E2462">
+        <v>0</v>
+      </c>
+      <c r="F2462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2463" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2463" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2463" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2463">
+        <v>2</v>
+      </c>
+      <c r="E2463">
+        <v>0</v>
+      </c>
+      <c r="F2463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2464" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2464" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2464" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2464">
+        <v>1</v>
+      </c>
+      <c r="E2464">
+        <v>0</v>
+      </c>
+      <c r="F2464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2465" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2465" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2465">
+        <v>3</v>
+      </c>
+      <c r="E2465">
+        <v>2</v>
+      </c>
+      <c r="F2465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2466" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2466" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2466" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2466">
+        <v>2</v>
+      </c>
+      <c r="E2466">
+        <v>0</v>
+      </c>
+      <c r="F2466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2467" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2467" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2467">
+        <v>2</v>
+      </c>
+      <c r="E2467">
+        <v>0</v>
+      </c>
+      <c r="F2467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2468" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2468" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2468">
+        <v>1</v>
+      </c>
+      <c r="E2468">
+        <v>0</v>
+      </c>
+      <c r="F2468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2469" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2469" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2469">
+        <v>2</v>
+      </c>
+      <c r="E2469">
+        <v>0</v>
+      </c>
+      <c r="F2469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2470" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2470" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2470">
+        <v>2</v>
+      </c>
+      <c r="E2470">
+        <v>0</v>
+      </c>
+      <c r="F2470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2471" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2471" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2471">
+        <v>3</v>
+      </c>
+      <c r="E2471">
+        <v>0</v>
+      </c>
+      <c r="F2471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2472" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2472" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2472">
+        <v>3</v>
+      </c>
+      <c r="E2472">
+        <v>0</v>
+      </c>
+      <c r="F2472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2473" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2473" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2473" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2473">
+        <v>3</v>
+      </c>
+      <c r="E2473">
+        <v>2</v>
+      </c>
+      <c r="F2473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2474" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2474" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2474" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2474">
+        <v>4</v>
+      </c>
+      <c r="E2474">
+        <v>0</v>
+      </c>
+      <c r="F2474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2475" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2475" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2475" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2475">
+        <v>1</v>
+      </c>
+      <c r="E2475">
+        <v>0</v>
+      </c>
+      <c r="F2475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2476" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2476" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2476" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2476">
+        <v>1</v>
+      </c>
+      <c r="E2476">
+        <v>0</v>
+      </c>
+      <c r="F2476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2477" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2477" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2477" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2477">
+        <v>5</v>
+      </c>
+      <c r="E2477">
+        <v>0</v>
+      </c>
+      <c r="F2477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2478" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2478" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2478" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2478">
+        <v>3</v>
+      </c>
+      <c r="E2478">
+        <v>0</v>
+      </c>
+      <c r="F2478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2479" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2479" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2479" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2479">
+        <v>1</v>
+      </c>
+      <c r="E2479">
+        <v>1</v>
+      </c>
+      <c r="F2479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2480" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2480" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2480">
+        <v>17</v>
+      </c>
+      <c r="E2480">
+        <v>1</v>
+      </c>
+      <c r="F2480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2481" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2481" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2481">
+        <v>2</v>
+      </c>
+      <c r="E2481">
+        <v>0</v>
+      </c>
+      <c r="F2481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2482" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2482">
+        <v>2</v>
+      </c>
+      <c r="E2482">
+        <v>0</v>
+      </c>
+      <c r="F2482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2483" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2483" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2483">
+        <v>1</v>
+      </c>
+      <c r="E2483">
+        <v>0</v>
+      </c>
+      <c r="F2483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2484" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2484">
+        <v>2</v>
+      </c>
+      <c r="E2484">
+        <v>0</v>
+      </c>
+      <c r="F2484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2485" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2485">
+        <v>2</v>
+      </c>
+      <c r="E2485">
+        <v>0</v>
+      </c>
+      <c r="F2485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2486" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2486" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2486" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2486">
+        <v>3</v>
+      </c>
+      <c r="E2486">
+        <v>1</v>
+      </c>
+      <c r="F2486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2487" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2487" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2487">
+        <v>1</v>
+      </c>
+      <c r="E2487">
+        <v>0</v>
+      </c>
+      <c r="F2487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2488" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2488" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2488" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2488">
+        <v>3</v>
+      </c>
+      <c r="E2488">
+        <v>0</v>
+      </c>
+      <c r="F2488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2489" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2489" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C2489" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2489">
+        <v>0</v>
+      </c>
+      <c r="E2489">
+        <v>0</v>
+      </c>
+      <c r="F2489">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC81F16-AF0A-4576-BCE0-27DAE496651E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C0EF9-A04B-4DCD-B7ED-177094C61EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -526,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2489"/>
+  <dimension ref="B1:F2599"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2465" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F2489"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
@@ -42840,6 +42840,1876 @@
         <v>107</v>
       </c>
     </row>
+    <row r="2490" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2490" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2490" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2490">
+        <v>2</v>
+      </c>
+      <c r="E2490">
+        <v>0</v>
+      </c>
+      <c r="F2490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2491" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2491" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2491" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2491">
+        <v>2</v>
+      </c>
+      <c r="E2491">
+        <v>0</v>
+      </c>
+      <c r="F2491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2492" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2492" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2492" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2492">
+        <v>2</v>
+      </c>
+      <c r="E2492">
+        <v>0</v>
+      </c>
+      <c r="F2492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2493" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2493" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2493" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2493">
+        <v>10</v>
+      </c>
+      <c r="E2493">
+        <v>0</v>
+      </c>
+      <c r="F2493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2494" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2494" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2494">
+        <v>0</v>
+      </c>
+      <c r="E2494">
+        <v>1</v>
+      </c>
+      <c r="F2494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2495" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2495" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2495" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2495">
+        <v>3</v>
+      </c>
+      <c r="E2495">
+        <v>0</v>
+      </c>
+      <c r="F2495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2496" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2496" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2496" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2496">
+        <v>7</v>
+      </c>
+      <c r="E2496">
+        <v>1</v>
+      </c>
+      <c r="F2496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2497" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2497" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2497" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2497">
+        <v>1</v>
+      </c>
+      <c r="E2497">
+        <v>0</v>
+      </c>
+      <c r="F2497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2498" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2498" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2498" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2498">
+        <v>2</v>
+      </c>
+      <c r="E2498">
+        <v>0</v>
+      </c>
+      <c r="F2498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2499" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2499" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2499" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2499">
+        <v>3</v>
+      </c>
+      <c r="E2499">
+        <v>0</v>
+      </c>
+      <c r="F2499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2500" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2500" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2500" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2500">
+        <v>3</v>
+      </c>
+      <c r="E2500">
+        <v>0</v>
+      </c>
+      <c r="F2500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2501" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2501" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2501" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2501">
+        <v>2</v>
+      </c>
+      <c r="E2501">
+        <v>0</v>
+      </c>
+      <c r="F2501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2502" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2502" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2502" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2502">
+        <v>3</v>
+      </c>
+      <c r="E2502">
+        <v>1</v>
+      </c>
+      <c r="F2502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2503" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2503" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2503" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2503">
+        <v>2</v>
+      </c>
+      <c r="E2503">
+        <v>0</v>
+      </c>
+      <c r="F2503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2504" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2504" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2504" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2504">
+        <v>2</v>
+      </c>
+      <c r="E2504">
+        <v>0</v>
+      </c>
+      <c r="F2504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2505" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2505" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2505" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2505">
+        <v>1</v>
+      </c>
+      <c r="E2505">
+        <v>1</v>
+      </c>
+      <c r="F2505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2506" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2506" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2506" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2506">
+        <v>2</v>
+      </c>
+      <c r="E2506">
+        <v>0</v>
+      </c>
+      <c r="F2506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2507" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2507" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2507" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2507">
+        <v>2</v>
+      </c>
+      <c r="E2507">
+        <v>0</v>
+      </c>
+      <c r="F2507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2508" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2508" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2508">
+        <v>3</v>
+      </c>
+      <c r="E2508">
+        <v>0</v>
+      </c>
+      <c r="F2508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2509" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2509" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2509" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2509">
+        <v>2</v>
+      </c>
+      <c r="E2509">
+        <v>2</v>
+      </c>
+      <c r="F2509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2510" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2510" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2510" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2510">
+        <v>4</v>
+      </c>
+      <c r="E2510">
+        <v>0</v>
+      </c>
+      <c r="F2510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2511" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2511" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2511" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2511">
+        <v>3</v>
+      </c>
+      <c r="E2511">
+        <v>1</v>
+      </c>
+      <c r="F2511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2512" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2512" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2512" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2512">
+        <v>2</v>
+      </c>
+      <c r="E2512">
+        <v>0</v>
+      </c>
+      <c r="F2512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2513" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2513" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2513" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2513">
+        <v>5</v>
+      </c>
+      <c r="E2513">
+        <v>0</v>
+      </c>
+      <c r="F2513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2514" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2514" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2514">
+        <v>3</v>
+      </c>
+      <c r="E2514">
+        <v>0</v>
+      </c>
+      <c r="F2514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2515" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2515" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2515">
+        <v>3</v>
+      </c>
+      <c r="E2515">
+        <v>0</v>
+      </c>
+      <c r="F2515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2516" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2516" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2516" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2516">
+        <v>23</v>
+      </c>
+      <c r="E2516">
+        <v>1</v>
+      </c>
+      <c r="F2516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2517" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2517">
+        <v>3</v>
+      </c>
+      <c r="E2517">
+        <v>0</v>
+      </c>
+      <c r="F2517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2518" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2518">
+        <v>1</v>
+      </c>
+      <c r="E2518">
+        <v>0</v>
+      </c>
+      <c r="F2518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2519" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2519">
+        <v>3</v>
+      </c>
+      <c r="E2519">
+        <v>1</v>
+      </c>
+      <c r="F2519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2520" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2520">
+        <v>3</v>
+      </c>
+      <c r="E2520">
+        <v>0</v>
+      </c>
+      <c r="F2520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2521" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2521" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2521">
+        <v>4</v>
+      </c>
+      <c r="E2521">
+        <v>0</v>
+      </c>
+      <c r="F2521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2522" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2522">
+        <v>4</v>
+      </c>
+      <c r="E2522">
+        <v>2</v>
+      </c>
+      <c r="F2522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2523" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2523">
+        <v>3</v>
+      </c>
+      <c r="E2523">
+        <v>0</v>
+      </c>
+      <c r="F2523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2524" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2524" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2524">
+        <v>3</v>
+      </c>
+      <c r="E2524">
+        <v>0</v>
+      </c>
+      <c r="F2524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2525" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2525" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2525">
+        <v>0</v>
+      </c>
+      <c r="E2525">
+        <v>0</v>
+      </c>
+      <c r="F2525">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2526" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2526" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2526">
+        <v>2</v>
+      </c>
+      <c r="E2526">
+        <v>0</v>
+      </c>
+      <c r="F2526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2527" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2527">
+        <v>2</v>
+      </c>
+      <c r="E2527">
+        <v>0</v>
+      </c>
+      <c r="F2527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2528" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2528">
+        <v>16</v>
+      </c>
+      <c r="E2528">
+        <v>1</v>
+      </c>
+      <c r="F2528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2529" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2529" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2529">
+        <v>2</v>
+      </c>
+      <c r="E2529">
+        <v>0</v>
+      </c>
+      <c r="F2529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2530" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2530" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2530">
+        <v>2</v>
+      </c>
+      <c r="E2530">
+        <v>0</v>
+      </c>
+      <c r="F2530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2531" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2531">
+        <v>2</v>
+      </c>
+      <c r="E2531">
+        <v>1</v>
+      </c>
+      <c r="F2531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2532" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2532">
+        <v>1</v>
+      </c>
+      <c r="E2532">
+        <v>0</v>
+      </c>
+      <c r="F2532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2533" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2533">
+        <v>18</v>
+      </c>
+      <c r="E2533">
+        <v>0</v>
+      </c>
+      <c r="F2533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2534" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2534" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2534">
+        <v>0</v>
+      </c>
+      <c r="E2534">
+        <v>1</v>
+      </c>
+      <c r="F2534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2535" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2535" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2535">
+        <v>2</v>
+      </c>
+      <c r="E2535">
+        <v>0</v>
+      </c>
+      <c r="F2535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2536" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2536">
+        <v>3</v>
+      </c>
+      <c r="E2536">
+        <v>0</v>
+      </c>
+      <c r="F2536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2537" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2537">
+        <v>1</v>
+      </c>
+      <c r="E2537">
+        <v>0</v>
+      </c>
+      <c r="F2537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2538" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2538" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2538">
+        <v>2</v>
+      </c>
+      <c r="E2538">
+        <v>1</v>
+      </c>
+      <c r="F2538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2539" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2539">
+        <v>2</v>
+      </c>
+      <c r="E2539">
+        <v>0</v>
+      </c>
+      <c r="F2539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2540" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2540">
+        <v>2</v>
+      </c>
+      <c r="E2540">
+        <v>0</v>
+      </c>
+      <c r="F2540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2541" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2541">
+        <v>3</v>
+      </c>
+      <c r="E2541">
+        <v>0</v>
+      </c>
+      <c r="F2541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2542" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2542">
+        <v>2</v>
+      </c>
+      <c r="E2542">
+        <v>1</v>
+      </c>
+      <c r="F2542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2543" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2543">
+        <v>1</v>
+      </c>
+      <c r="E2543">
+        <v>0</v>
+      </c>
+      <c r="F2543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2544" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2544" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2544">
+        <v>2</v>
+      </c>
+      <c r="E2544">
+        <v>1</v>
+      </c>
+      <c r="F2544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2545" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2545" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2545">
+        <v>3</v>
+      </c>
+      <c r="E2545">
+        <v>0</v>
+      </c>
+      <c r="F2545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2546" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2546" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2546">
+        <v>2</v>
+      </c>
+      <c r="E2546">
+        <v>1</v>
+      </c>
+      <c r="F2546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2547" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2547" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2547">
+        <v>2</v>
+      </c>
+      <c r="E2547">
+        <v>0</v>
+      </c>
+      <c r="F2547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2548" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2548" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2548">
+        <v>0</v>
+      </c>
+      <c r="E2548">
+        <v>1</v>
+      </c>
+      <c r="F2548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2549" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2549" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2549">
+        <v>3</v>
+      </c>
+      <c r="E2549">
+        <v>0</v>
+      </c>
+      <c r="F2549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2550" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2550" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2550">
+        <v>2</v>
+      </c>
+      <c r="E2550">
+        <v>1</v>
+      </c>
+      <c r="F2550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2551" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2551">
+        <v>2</v>
+      </c>
+      <c r="E2551">
+        <v>0</v>
+      </c>
+      <c r="F2551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2552" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2552" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2552">
+        <v>1</v>
+      </c>
+      <c r="E2552">
+        <v>0</v>
+      </c>
+      <c r="F2552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2553" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2553" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2553">
+        <v>1</v>
+      </c>
+      <c r="E2553">
+        <v>0</v>
+      </c>
+      <c r="F2553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2554" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2554" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2554">
+        <v>21</v>
+      </c>
+      <c r="E2554">
+        <v>1</v>
+      </c>
+      <c r="F2554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2555" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2555" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2555">
+        <v>2</v>
+      </c>
+      <c r="E2555">
+        <v>0</v>
+      </c>
+      <c r="F2555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2556" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2556" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2556">
+        <v>0</v>
+      </c>
+      <c r="E2556">
+        <v>1</v>
+      </c>
+      <c r="F2556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2557" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2557" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2557">
+        <v>2</v>
+      </c>
+      <c r="E2557">
+        <v>0</v>
+      </c>
+      <c r="F2557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2558" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2558" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2558">
+        <v>2</v>
+      </c>
+      <c r="E2558">
+        <v>0</v>
+      </c>
+      <c r="F2558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2559" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2559" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2559">
+        <v>1</v>
+      </c>
+      <c r="E2559">
+        <v>0</v>
+      </c>
+      <c r="F2559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2560" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2560" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2560">
+        <v>3</v>
+      </c>
+      <c r="E2560">
+        <v>1</v>
+      </c>
+      <c r="F2560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2561" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2561" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2561">
+        <v>2</v>
+      </c>
+      <c r="E2561">
+        <v>0</v>
+      </c>
+      <c r="F2561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2562" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2562">
+        <v>3</v>
+      </c>
+      <c r="E2562">
+        <v>0</v>
+      </c>
+      <c r="F2562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2563" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2563" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2563">
+        <v>0</v>
+      </c>
+      <c r="E2563">
+        <v>0</v>
+      </c>
+      <c r="F2563">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2564" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2564" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2564">
+        <v>4</v>
+      </c>
+      <c r="E2564">
+        <v>1</v>
+      </c>
+      <c r="F2564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2565" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2565" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2565">
+        <v>1</v>
+      </c>
+      <c r="E2565">
+        <v>0</v>
+      </c>
+      <c r="F2565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2566" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2566" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2566">
+        <v>12</v>
+      </c>
+      <c r="E2566">
+        <v>0</v>
+      </c>
+      <c r="F2566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2567" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2567" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2567">
+        <v>2</v>
+      </c>
+      <c r="E2567">
+        <v>1</v>
+      </c>
+      <c r="F2567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2568" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2568" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2568">
+        <v>2</v>
+      </c>
+      <c r="E2568">
+        <v>0</v>
+      </c>
+      <c r="F2568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2569" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2569" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2569">
+        <v>4</v>
+      </c>
+      <c r="E2569">
+        <v>0</v>
+      </c>
+      <c r="F2569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2570" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2570" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2570">
+        <v>1</v>
+      </c>
+      <c r="E2570">
+        <v>0</v>
+      </c>
+      <c r="F2570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2571" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2571" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2571">
+        <v>0</v>
+      </c>
+      <c r="E2571">
+        <v>2</v>
+      </c>
+      <c r="F2571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2572" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2572" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2572">
+        <v>4</v>
+      </c>
+      <c r="E2572">
+        <v>2</v>
+      </c>
+      <c r="F2572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2573" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2573" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2573">
+        <v>2</v>
+      </c>
+      <c r="E2573">
+        <v>0</v>
+      </c>
+      <c r="F2573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2574" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2574" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2574">
+        <v>2</v>
+      </c>
+      <c r="E2574">
+        <v>0</v>
+      </c>
+      <c r="F2574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2575" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2575" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2575" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2575">
+        <v>1</v>
+      </c>
+      <c r="E2575">
+        <v>0</v>
+      </c>
+      <c r="F2575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2576" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2576" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2576" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2576">
+        <v>8</v>
+      </c>
+      <c r="E2576">
+        <v>0</v>
+      </c>
+      <c r="F2576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2577" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2577" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2577" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2577">
+        <v>1</v>
+      </c>
+      <c r="E2577">
+        <v>0</v>
+      </c>
+      <c r="F2577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2578" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2578" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2578" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2578">
+        <v>3</v>
+      </c>
+      <c r="E2578">
+        <v>0</v>
+      </c>
+      <c r="F2578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2579" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2579" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2579" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2579">
+        <v>1</v>
+      </c>
+      <c r="E2579">
+        <v>0</v>
+      </c>
+      <c r="F2579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2580" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2580" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2580" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2580">
+        <v>2</v>
+      </c>
+      <c r="E2580">
+        <v>0</v>
+      </c>
+      <c r="F2580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2581" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2581" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2581" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2581">
+        <v>1</v>
+      </c>
+      <c r="E2581">
+        <v>0</v>
+      </c>
+      <c r="F2581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2582" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2582" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2582" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2582">
+        <v>2</v>
+      </c>
+      <c r="E2582">
+        <v>0</v>
+      </c>
+      <c r="F2582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2583" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2583" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2583" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2583">
+        <v>3</v>
+      </c>
+      <c r="E2583">
+        <v>1</v>
+      </c>
+      <c r="F2583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2584" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2584" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2584" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2584">
+        <v>3</v>
+      </c>
+      <c r="E2584">
+        <v>0</v>
+      </c>
+      <c r="F2584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2585" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2585" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2585" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2585">
+        <v>1</v>
+      </c>
+      <c r="E2585">
+        <v>0</v>
+      </c>
+      <c r="F2585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2586" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2586" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2586" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2586">
+        <v>12</v>
+      </c>
+      <c r="E2586">
+        <v>0</v>
+      </c>
+      <c r="F2586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2587" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2587" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2587" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2587">
+        <v>7</v>
+      </c>
+      <c r="E2587">
+        <v>0</v>
+      </c>
+      <c r="F2587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2588" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2588" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2588" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2588">
+        <v>2</v>
+      </c>
+      <c r="E2588">
+        <v>1</v>
+      </c>
+      <c r="F2588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2589" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2589" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2589" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2589">
+        <v>1</v>
+      </c>
+      <c r="E2589">
+        <v>0</v>
+      </c>
+      <c r="F2589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2590" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2590" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2590" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2590">
+        <v>3</v>
+      </c>
+      <c r="E2590">
+        <v>0</v>
+      </c>
+      <c r="F2590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2591" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2591" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2591" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2591">
+        <v>25</v>
+      </c>
+      <c r="E2591">
+        <v>2</v>
+      </c>
+      <c r="F2591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2592" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2592" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2592" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2592">
+        <v>1</v>
+      </c>
+      <c r="E2592">
+        <v>0</v>
+      </c>
+      <c r="F2592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2593" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2593" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2593" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2593">
+        <v>1</v>
+      </c>
+      <c r="E2593">
+        <v>0</v>
+      </c>
+      <c r="F2593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2594" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2594" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2594" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2594">
+        <v>2</v>
+      </c>
+      <c r="E2594">
+        <v>3</v>
+      </c>
+      <c r="F2594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2595" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2595" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2595" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2595">
+        <v>1</v>
+      </c>
+      <c r="E2595">
+        <v>1</v>
+      </c>
+      <c r="F2595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2596" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2596" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2596" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2596">
+        <v>1</v>
+      </c>
+      <c r="E2596">
+        <v>0</v>
+      </c>
+      <c r="F2596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2597" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2597" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2597">
+        <v>1</v>
+      </c>
+      <c r="E2597">
+        <v>0</v>
+      </c>
+      <c r="F2597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2598" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2598" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2598" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2598">
+        <v>2</v>
+      </c>
+      <c r="E2598">
+        <v>0</v>
+      </c>
+      <c r="F2598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2599" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2599" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C2599" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2599">
+        <v>0</v>
+      </c>
+      <c r="E2599">
+        <v>0</v>
+      </c>
+      <c r="F2599">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Covid19-DZ-Data.xlsx
+++ b/Covid19-DZ-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hocine satour\Documents\GitHub\covid19-DZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C0EF9-A04B-4DCD-B7ED-177094C61EF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CF3B5F-5F8C-484B-8A45-7426445C611F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23070" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F2599"/>
+  <dimension ref="B1:F2674"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44710,6 +44710,1281 @@
         <v>118</v>
       </c>
     </row>
+    <row r="2600" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2600" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2600" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2600">
+        <v>1</v>
+      </c>
+      <c r="E2600">
+        <v>0</v>
+      </c>
+      <c r="F2600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2601" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2601" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2601">
+        <v>2</v>
+      </c>
+      <c r="E2601">
+        <v>0</v>
+      </c>
+      <c r="F2601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2602" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2602" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2602" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2602">
+        <v>15</v>
+      </c>
+      <c r="E2602">
+        <v>0</v>
+      </c>
+      <c r="F2602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2603" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2603" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2603" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2603">
+        <v>7</v>
+      </c>
+      <c r="E2603">
+        <v>2</v>
+      </c>
+      <c r="F2603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2604" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2604">
+        <v>1</v>
+      </c>
+      <c r="E2604">
+        <v>1</v>
+      </c>
+      <c r="F2604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2605" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2605" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2605">
+        <v>9</v>
+      </c>
+      <c r="E2605">
+        <v>0</v>
+      </c>
+      <c r="F2605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2606" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2606" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2606">
+        <v>20</v>
+      </c>
+      <c r="E2606">
+        <v>0</v>
+      </c>
+      <c r="F2606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2607" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2607" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2607">
+        <v>1</v>
+      </c>
+      <c r="E2607">
+        <v>0</v>
+      </c>
+      <c r="F2607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2608" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2608" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2608" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2608">
+        <v>1</v>
+      </c>
+      <c r="E2608">
+        <v>0</v>
+      </c>
+      <c r="F2608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2609" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2609" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2609" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2609">
+        <v>1</v>
+      </c>
+      <c r="E2609">
+        <v>0</v>
+      </c>
+      <c r="F2609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2610" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2610" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2610">
+        <v>3</v>
+      </c>
+      <c r="E2610">
+        <v>1</v>
+      </c>
+      <c r="F2610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2611" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2611" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2611">
+        <v>4</v>
+      </c>
+      <c r="E2611">
+        <v>0</v>
+      </c>
+      <c r="F2611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2612" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2612" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2612">
+        <v>2</v>
+      </c>
+      <c r="E2612">
+        <v>0</v>
+      </c>
+      <c r="F2612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2613" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2613" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2613" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2613">
+        <v>3</v>
+      </c>
+      <c r="E2613">
+        <v>1</v>
+      </c>
+      <c r="F2613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2614" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2614" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2614">
+        <v>2</v>
+      </c>
+      <c r="E2614">
+        <v>0</v>
+      </c>
+      <c r="F2614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2615" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2615" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2615" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2615">
+        <v>1</v>
+      </c>
+      <c r="E2615">
+        <v>1</v>
+      </c>
+      <c r="F2615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2616" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2616" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2616" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2616">
+        <v>2</v>
+      </c>
+      <c r="E2616">
+        <v>0</v>
+      </c>
+      <c r="F2616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2617" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2617" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2617" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2617">
+        <v>2</v>
+      </c>
+      <c r="E2617">
+        <v>0</v>
+      </c>
+      <c r="F2617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2618" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2618" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2618" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2618">
+        <v>1</v>
+      </c>
+      <c r="E2618">
+        <v>2</v>
+      </c>
+      <c r="F2618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2619" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2619" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2619">
+        <v>2</v>
+      </c>
+      <c r="E2619">
+        <v>1</v>
+      </c>
+      <c r="F2619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2620" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2620" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2620">
+        <v>1</v>
+      </c>
+      <c r="E2620">
+        <v>0</v>
+      </c>
+      <c r="F2620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2621" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2621" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2621" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2621">
+        <v>2</v>
+      </c>
+      <c r="E2621">
+        <v>0</v>
+      </c>
+      <c r="F2621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2622" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2622" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2622">
+        <v>2</v>
+      </c>
+      <c r="E2622">
+        <v>0</v>
+      </c>
+      <c r="F2622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2623" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2623" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2623" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2623">
+        <v>0</v>
+      </c>
+      <c r="E2623">
+        <v>1</v>
+      </c>
+      <c r="F2623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2624" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2624" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2624" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2624">
+        <v>2</v>
+      </c>
+      <c r="E2624">
+        <v>0</v>
+      </c>
+      <c r="F2624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2625" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2625" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2625" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2625">
+        <v>3</v>
+      </c>
+      <c r="E2625">
+        <v>1</v>
+      </c>
+      <c r="F2625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2626" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2626" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2626" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2626">
+        <v>8</v>
+      </c>
+      <c r="E2626">
+        <v>1</v>
+      </c>
+      <c r="F2626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2627" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2627" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2627" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2627">
+        <v>1</v>
+      </c>
+      <c r="E2627">
+        <v>0</v>
+      </c>
+      <c r="F2627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2628" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2628" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2628" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2628">
+        <v>1</v>
+      </c>
+      <c r="E2628">
+        <v>0</v>
+      </c>
+      <c r="F2628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2629" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2629" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2629" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2629">
+        <v>1</v>
+      </c>
+      <c r="E2629">
+        <v>0</v>
+      </c>
+      <c r="F2629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2630" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2630" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2630">
+        <v>14</v>
+      </c>
+      <c r="E2630">
+        <v>0</v>
+      </c>
+      <c r="F2630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2631" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2631" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2631">
+        <v>2</v>
+      </c>
+      <c r="E2631">
+        <v>0</v>
+      </c>
+      <c r="F2631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2632" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2632" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2632" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2632">
+        <v>3</v>
+      </c>
+      <c r="E2632">
+        <v>0</v>
+      </c>
+      <c r="F2632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2633" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2633" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2633" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2633">
+        <v>1</v>
+      </c>
+      <c r="E2633">
+        <v>0</v>
+      </c>
+      <c r="F2633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2634" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2634" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2634" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2634">
+        <v>1</v>
+      </c>
+      <c r="E2634">
+        <v>0</v>
+      </c>
+      <c r="F2634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2635" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2635" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2635" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2635">
+        <v>2</v>
+      </c>
+      <c r="E2635">
+        <v>0</v>
+      </c>
+      <c r="F2635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2636" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2636">
+        <v>1</v>
+      </c>
+      <c r="E2636">
+        <v>0</v>
+      </c>
+      <c r="F2636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2637" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2637" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2637" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2637">
+        <v>2</v>
+      </c>
+      <c r="E2637">
+        <v>0</v>
+      </c>
+      <c r="F2637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2638" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2638" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C2638" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2638">
+        <v>0</v>
+      </c>
+      <c r="E2638">
+        <v>0</v>
+      </c>
+      <c r="F2638">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2639" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2639" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2639" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2639">
+        <v>0</v>
+      </c>
+      <c r="E2639">
+        <v>1</v>
+      </c>
+      <c r="F2639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2640" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2640" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2640" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2640">
+        <v>14</v>
+      </c>
+      <c r="E2640">
+        <v>0</v>
+      </c>
+      <c r="F2640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2641" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2641" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2641" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2641">
+        <v>3</v>
+      </c>
+      <c r="E2641">
+        <v>0</v>
+      </c>
+      <c r="F2641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2642" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2642" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2642" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2642">
+        <v>5</v>
+      </c>
+      <c r="E2642">
+        <v>1</v>
+      </c>
+      <c r="F2642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2643" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2643" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2643">
+        <v>2</v>
+      </c>
+      <c r="E2643">
+        <v>0</v>
+      </c>
+      <c r="F2643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2644" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2644" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2644" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2644">
+        <v>12</v>
+      </c>
+      <c r="E2644">
+        <v>0</v>
+      </c>
+      <c r="F2644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2645" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2645" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2645" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2645">
+        <v>11</v>
+      </c>
+      <c r="E2645">
+        <v>0</v>
+      </c>
+      <c r="F2645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2646" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2646" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2646" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2646">
+        <v>5</v>
+      </c>
+      <c r="E2646">
+        <v>1</v>
+      </c>
+      <c r="F2646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2647" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2647" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2647" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2647">
+        <v>2</v>
+      </c>
+      <c r="E2647">
+        <v>0</v>
+      </c>
+      <c r="F2647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2648" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2648" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2648" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2648">
+        <v>3</v>
+      </c>
+      <c r="E2648">
+        <v>0</v>
+      </c>
+      <c r="F2648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2649" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2649" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2649" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2649">
+        <v>7</v>
+      </c>
+      <c r="E2649">
+        <v>0</v>
+      </c>
+      <c r="F2649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2650" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2650" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2650" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2650">
+        <v>2</v>
+      </c>
+      <c r="E2650">
+        <v>0</v>
+      </c>
+      <c r="F2650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2651" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2651" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2651" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2651">
+        <v>1</v>
+      </c>
+      <c r="E2651">
+        <v>0</v>
+      </c>
+      <c r="F2651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2652" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2652" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2652" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2652">
+        <v>1</v>
+      </c>
+      <c r="E2652">
+        <v>0</v>
+      </c>
+      <c r="F2652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2653" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2653" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2653" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2653">
+        <v>4</v>
+      </c>
+      <c r="E2653">
+        <v>0</v>
+      </c>
+      <c r="F2653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2654" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2654" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2654" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2654">
+        <v>1</v>
+      </c>
+      <c r="E2654">
+        <v>0</v>
+      </c>
+      <c r="F2654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2655" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2655" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2655" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2655">
+        <v>2</v>
+      </c>
+      <c r="E2655">
+        <v>0</v>
+      </c>
+      <c r="F2655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2656" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2656" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2656" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2656">
+        <v>4</v>
+      </c>
+      <c r="E2656">
+        <v>1</v>
+      </c>
+      <c r="F2656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2657" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2657" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2657" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2657">
+        <v>1</v>
+      </c>
+      <c r="E2657">
+        <v>1</v>
+      </c>
+      <c r="F2657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2658" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2658" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2658" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2658">
+        <v>2</v>
+      </c>
+      <c r="E2658">
+        <v>0</v>
+      </c>
+      <c r="F2658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2659" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2659" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2659" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2659">
+        <v>1</v>
+      </c>
+      <c r="E2659">
+        <v>0</v>
+      </c>
+      <c r="F2659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2660" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2660" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2660" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2660">
+        <v>0</v>
+      </c>
+      <c r="E2660">
+        <v>1</v>
+      </c>
+      <c r="F2660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2661" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2661" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2661" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2661">
+        <v>3</v>
+      </c>
+      <c r="E2661">
+        <v>0</v>
+      </c>
+      <c r="F2661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2662" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2662" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2662" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2662">
+        <v>8</v>
+      </c>
+      <c r="E2662">
+        <v>0</v>
+      </c>
+      <c r="F2662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2663" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2663" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2663" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2663">
+        <v>1</v>
+      </c>
+      <c r="E2663">
+        <v>0</v>
+      </c>
+      <c r="F2663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2664" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2664" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2664" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2664">
+        <v>1</v>
+      </c>
+      <c r="E2664">
+        <v>0</v>
+      </c>
+      <c r="F2664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2665" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2665" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2665" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2665">
+        <v>28</v>
+      </c>
+      <c r="E2665">
+        <v>1</v>
+      </c>
+      <c r="F2665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2666" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2666" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2666" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2666">
+        <v>0</v>
+      </c>
+      <c r="E2666">
+        <v>1</v>
+      </c>
+      <c r="F2666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2667" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2667" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2667" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2667">
+        <v>2</v>
+      </c>
+      <c r="E2667">
+        <v>0</v>
+      </c>
+      <c r="F2667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2668" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2668" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2668" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2668">
+        <v>4</v>
+      </c>
+      <c r="E2668">
+        <v>0</v>
+      </c>
+      <c r="F2668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2669" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2669" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2669" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2669">
+        <v>2</v>
+      </c>
+      <c r="E2669">
+        <v>0</v>
+      </c>
+      <c r="F2669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2670" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2670" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2670" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2670">
+        <v>4</v>
+      </c>
+      <c r="E2670">
+        <v>0</v>
+      </c>
+      <c r="F2670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2671" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2671" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2671" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2671">
+        <v>2</v>
+      </c>
+      <c r="E2671">
+        <v>0</v>
+      </c>
+      <c r="F2671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2672" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2672" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2672" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2672">
+        <v>1</v>
+      </c>
+      <c r="E2672">
+        <v>0</v>
+      </c>
+      <c r="F2672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2673" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2673" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2673">
+        <v>1</v>
+      </c>
+      <c r="E2673">
+        <v>0</v>
+      </c>
+      <c r="F2673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2674" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2674" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C2674" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2674">
+        <v>0</v>
+      </c>
+      <c r="E2674">
+        <v>0</v>
+      </c>
+      <c r="F2674">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
